--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,318 +779,6 @@
         <v>898.16</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45639.55013888889</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>898.16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45639.59180555555</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>79.18</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>898.16</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45639.63347222222</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>55.67</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>898.16</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45639.67513888889</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>55.44</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>898.16</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45639.71680555555</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>22.87</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45639.75847222222</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>29.06</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45639.80013888889</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>27.69</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45639.84180555555</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>28.15</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45639.88347222222</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>29.05</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45639.92513888889</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>29.83</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45639.96680555555</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>30.83</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45640.00847222222</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>27.45</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45640.05013888889</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>26.73</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45640.09180555555</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>26.07</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45640.13347222222</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>25.51</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45640.17513888889</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>25.20</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45640.21680555555</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>24.73</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45640.25847222222</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>28.18</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45640.30013888889</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>224.66</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45640.34180555555</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>353.95</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>898.16</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45640.38347222222</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>361.52</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>898.16</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45640.42513888889</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>363.90</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>898.16</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45640.46680555555</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>363.09</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>898.16</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45640.50847222222</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>361.87</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>898.16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,6 +779,630 @@
         <v>898.16</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45639.55013888889</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45639.59180555555</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45639.63347222222</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>55.67</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45639.67513888889</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45639.71680555555</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45639.75847222222</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45639.80013888889</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45639.84180555555</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45639.88347222222</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45639.92513888889</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45639.96680555555</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>30.83</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45640.00847222222</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45640.05013888889</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45640.09180555555</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45640.13347222222</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45640.17513888889</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45640.21680555555</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45640.25847222222</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45640.30013888889</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>224.66</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45640.34180555555</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>353.95</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45640.38347222222</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>361.52</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45640.42513888889</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>363.90</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45640.46680555555</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>363.09</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45640.50847222222</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>361.87</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45640.55013888889</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>364.35</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45640.59180555555</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>366.15</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45640.63347222222</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>359.86</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45640.67513888889</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>285.17</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45640.71680555555</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45640.75847222222</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45640.80013888889</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45640.84180555555</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45640.88347222222</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45640.92513888889</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45640.96680555555</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45641.00847222222</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45641.05013888889</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45641.09180555555</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45641.13347222222</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45641.17513888889</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45641.21680555555</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45641.25847222222</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45641.30013888889</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>218.76</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45641.34180555555</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>357.50</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45641.38347222222</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>361.74</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45641.42513888889</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>362.68</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45641.46680555555</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>361.83</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45641.50847222222</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>361.12</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>898.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
